--- a/test_menu_import.xlsx
+++ b/test_menu_import.xlsx
@@ -436,7 +436,7 @@
         <v>250</v>
       </c>
       <c r="D2" t="str">
-        <v>starters</v>
+        <v>american-irish-whiskey</v>
       </c>
       <c r="E2" t="str">
         <v>TRUE</v>
@@ -459,7 +459,7 @@
         <v>150 | 250 | 350</v>
       </c>
       <c r="D3" t="str">
-        <v>combos</v>
+        <v>asian-mains</v>
       </c>
       <c r="E3" t="str">
         <v>TRUE</v>
